--- a/SchoolDistrictBilling/wwwroot/reportTemplates/ReconIndividualStudent.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/ReconIndividualStudent.xlsx
@@ -113,9 +113,6 @@
     <t>Prior</t>
   </si>
   <si>
-    <t>RECONCILIATION REPORT FOR THE 2021-2022 SCHOOL YEAR</t>
-  </si>
-  <si>
     <t>Aggregate</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Remit To: </t>
+  </si>
+  <si>
+    <t>RECONCILIATION REPORT FOR THE 2022-2023 SCHOOL YEAR</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1009,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
       <c r="J1" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="82"/>
       <c r="L1" s="3"/>
@@ -1021,7 +1021,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="51"/>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="51"/>
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>12</v>
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>20</v>

--- a/SchoolDistrictBilling/wwwroot/reportTemplates/ReconIndividualStudent.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/ReconIndividualStudent.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhensinger/dev/omnivest/SdBilling/SchoolDistrictBilling/wwwroot/reportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FF562-F61D-2149-B36E-1A5D800E1991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="-29680" windowWidth="42260" windowHeight="27680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34200" windowHeight="22240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +27,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -125,13 +128,13 @@
     <t xml:space="preserve">Remit To: </t>
   </si>
   <si>
-    <t>RECONCILIATION REPORT FOR THE 2022-2023 SCHOOL YEAR</t>
+    <t>RECONCILIATION REPORT FOR THE 2024-2025 SCHOOL YEAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,11 +202,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -418,41 +423,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -462,19 +466,18 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -497,14 +500,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -519,67 +522,67 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -594,16 +597,16 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -629,23 +632,23 @@
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -660,16 +663,13 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -684,11 +684,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
@@ -972,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L43"/>
@@ -987,703 +986,688 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="64" customWidth="1"/>
+    <col min="5" max="5" width="11" style="62" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="9" style="64" customWidth="1"/>
-    <col min="9" max="10" width="10.1640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="9" style="62" customWidth="1"/>
+    <col min="9" max="10" width="10.1640625" style="62" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="1"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="37" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="76" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="40" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="46" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="49" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="57"/>
+      <c r="I11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="45" t="s">
+      <c r="J11" s="65"/>
+      <c r="K11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="27">
+      <c r="A13" s="16"/>
+      <c r="B13" s="25">
         <v>1</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="26"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="32"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="27">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="26"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="32"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="27">
+      <c r="A21" s="16"/>
+      <c r="B21" s="25">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="26"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="32"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="24"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="27">
+      <c r="A25" s="16"/>
+      <c r="B25" s="25">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="24"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="32"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27">
+      <c r="A29" s="16"/>
+      <c r="B29" s="25">
         <f>B25+1</f>
         <v>5</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="26"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="32"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="27">
+      <c r="A33" s="16"/>
+      <c r="B33" s="25">
         <f>B29+1</f>
         <v>6</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="26"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="32"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="27">
+      <c r="A37" s="16"/>
+      <c r="B37" s="25">
         <f>B33+1</f>
         <v>7</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="26"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="32"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="27">
+      <c r="A41" s="16"/>
+      <c r="B41" s="25">
         <f>B37+1</f>
         <v>8</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="26"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="32"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
